--- a/src/assets/excel/user.xlsx
+++ b/src/assets/excel/user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>workScheduleSort</t>
   </si>
@@ -30,16 +30,55 @@
     <t>gender</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
-    <t>张三</t>
+    <t>李佳倩</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>在职</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>肖志桃</t>
+  </si>
+  <si>
+    <t>护士长</t>
+  </si>
+  <si>
+    <t>李波</t>
   </si>
   <si>
     <t>男</t>
   </si>
   <si>
-    <t>护士</t>
+    <t>沈彤彤</t>
+  </si>
+  <si>
+    <t>史立莉</t>
+  </si>
+  <si>
+    <t>吴正宏</t>
+  </si>
+  <si>
+    <t>肖颜林</t>
+  </si>
+  <si>
+    <t>马驰</t>
+  </si>
+  <si>
+    <t>离职</t>
+  </si>
+  <si>
+    <t>游欢</t>
   </si>
 </sst>
 </file>
@@ -52,14 +91,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,33 +579,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,97 +618,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -681,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,19 +1064,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,22 +1092,188 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
